--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.1014825</v>
+      </c>
+      <c r="H2">
+        <v>0.202965</v>
+      </c>
+      <c r="I2">
+        <v>0.5602924329074438</v>
+      </c>
+      <c r="J2">
+        <v>0.4593111407816425</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.07964166666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.238925</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N2">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O2">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P2">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q2">
-        <v>0.005024035258333334</v>
+        <v>0.016502610565</v>
       </c>
       <c r="R2">
-        <v>0.045216317325</v>
+        <v>0.09901566339000001</v>
       </c>
       <c r="S2">
-        <v>0.7267124392323111</v>
+        <v>0.07246041842878202</v>
       </c>
       <c r="T2">
-        <v>0.726712439232311</v>
+        <v>0.05940090476920102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,309 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.1014825</v>
+      </c>
+      <c r="H3">
+        <v>0.202965</v>
+      </c>
+      <c r="I3">
+        <v>0.5602924329074438</v>
+      </c>
+      <c r="J3">
+        <v>0.4593111407816425</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N3">
+        <v>2.630341</v>
+      </c>
+      <c r="O3">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P3">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q3">
+        <v>0.08897786017750001</v>
+      </c>
+      <c r="R3">
+        <v>0.533867161065</v>
+      </c>
+      <c r="S3">
+        <v>0.3906880644104511</v>
+      </c>
+      <c r="T3">
+        <v>0.3202745031250128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.1014825</v>
+      </c>
+      <c r="H4">
+        <v>0.202965</v>
+      </c>
+      <c r="I4">
+        <v>0.5602924329074438</v>
+      </c>
+      <c r="J4">
+        <v>0.4593111407816425</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.21801</v>
+      </c>
+      <c r="N4">
+        <v>0.65403</v>
+      </c>
+      <c r="O4">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P4">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q4">
+        <v>0.022124199825</v>
+      </c>
+      <c r="R4">
+        <v>0.13274519895</v>
+      </c>
+      <c r="S4">
+        <v>0.09714395006821067</v>
+      </c>
+      <c r="T4">
+        <v>0.0796357328874287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>0.07964166666666667</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>0.238925</v>
       </c>
-      <c r="I3">
+      <c r="I5">
+        <v>0.4397075670925562</v>
+      </c>
+      <c r="J5">
+        <v>0.5406888592183575</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.487846</v>
+      </c>
+      <c r="O5">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P5">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q5">
+        <v>0.01295095617222222</v>
+      </c>
+      <c r="R5">
+        <v>0.11655860555</v>
+      </c>
+      <c r="S5">
+        <v>0.05686565162498212</v>
+      </c>
+      <c r="T5">
+        <v>0.06992516528456312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.07964166666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.238925</v>
+      </c>
+      <c r="I6">
+        <v>0.4397075670925562</v>
+      </c>
+      <c r="J6">
+        <v>0.5406888592183575</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="M6">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.630341</v>
+      </c>
+      <c r="O6">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P6">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q6">
+        <v>0.06982824704722222</v>
+      </c>
+      <c r="R6">
+        <v>0.628454223425</v>
+      </c>
+      <c r="S6">
+        <v>0.3066050658628073</v>
+      </c>
+      <c r="T6">
+        <v>0.3770186271482457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.07964166666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.238925</v>
+      </c>
+      <c r="I7">
+        <v>0.4397075670925562</v>
+      </c>
+      <c r="J7">
+        <v>0.5406888592183575</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.023723</v>
-      </c>
-      <c r="N3">
-        <v>0.07116900000000001</v>
-      </c>
-      <c r="O3">
-        <v>0.2732875607676889</v>
-      </c>
-      <c r="P3">
-        <v>0.2732875607676888</v>
-      </c>
-      <c r="Q3">
-        <v>0.001889339258333334</v>
-      </c>
-      <c r="R3">
-        <v>0.017004053325</v>
-      </c>
-      <c r="S3">
-        <v>0.2732875607676889</v>
-      </c>
-      <c r="T3">
-        <v>0.2732875607676888</v>
+      <c r="M7">
+        <v>0.21801</v>
+      </c>
+      <c r="N7">
+        <v>0.65403</v>
+      </c>
+      <c r="O7">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P7">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q7">
+        <v>0.01736267975</v>
+      </c>
+      <c r="R7">
+        <v>0.15626411775</v>
+      </c>
+      <c r="S7">
+        <v>0.07623684960476679</v>
+      </c>
+      <c r="T7">
+        <v>0.09374506678554875</v>
       </c>
     </row>
   </sheetData>
